--- a/logs/water_fertilizer_shuffle_mk.xlsx
+++ b/logs/water_fertilizer_shuffle_mk.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monik\Documents\git\2025_g34p\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrkel\Documents\git\2025_g34p\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD13C51D-B916-469D-84C5-42F4B9C29E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19474A1E-0E23-4719-8F20-79208817B640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16875" yWindow="1830" windowWidth="12480" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -91,6 +102,24 @@
   </si>
   <si>
     <t>shuffled plants after fertilizing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soaked the pots until it dripped </t>
+  </si>
+  <si>
+    <t>dow</t>
+  </si>
+  <si>
+    <t>shuffled plants</t>
+  </si>
+  <si>
+    <t>pesticide</t>
+  </si>
+  <si>
+    <t>Jennifer sprayed plants to help address caterpillars</t>
+  </si>
+  <si>
+    <t>soaked</t>
   </si>
 </sst>
 </file>
@@ -98,7 +127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="dddd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -137,11 +166,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,354 +454,594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="77.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45847</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="6">
+        <f>A2</f>
+        <v>45847</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>800</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45848</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:B32" si="0">A3</f>
+        <v>45848</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
         <v>200</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45851</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="6">
+        <f t="shared" si="0"/>
+        <v>45851</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>200</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45852</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
+        <v>45852</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>100</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45854</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>45854</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
         <v>200</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45856</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>45856</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
         <v>200</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45860</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>45860</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
         <v>200</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45863</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>45863</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
         <v>200</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45863</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>45863</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
         <v>200</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45870</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>45870</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
         <v>200</v>
       </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45870</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>45870</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45870</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>45870</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45870</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>45870</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
         <v>50</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45873</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+        <v>45873</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
         <v>200</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45873</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
+        <v>45873</v>
+      </c>
+      <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45876</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+        <v>45876</v>
+      </c>
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>200</v>
       </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45876</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>45876</v>
+      </c>
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45880</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>45880</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
         <v>100</v>
       </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45881</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
+        <v>45881</v>
+      </c>
+      <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>100</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45881</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
+        <v>45881</v>
+      </c>
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45883</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
+        <v>45883</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
         <v>100</v>
       </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45884</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6">
+        <f t="shared" si="0"/>
+        <v>45884</v>
+      </c>
+      <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>100</v>
       </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45887</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6">
+        <f t="shared" si="0"/>
+        <v>45887</v>
+      </c>
+      <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>100</v>
       </c>
-      <c r="D24" t="s">
-        <v>9</v>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>45889</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" si="0"/>
+        <v>45889</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>45891</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" si="0"/>
+        <v>45891</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>45894</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="0"/>
+        <v>45894</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>45905</v>
+      </c>
+      <c r="B28" s="6">
+        <f t="shared" si="0"/>
+        <v>45905</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>45906</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" si="0"/>
+        <v>45906</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>45907</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" si="0"/>
+        <v>45907</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>45903</v>
+      </c>
+      <c r="B31" s="6">
+        <f t="shared" si="0"/>
+        <v>45903</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>45907</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="0"/>
+        <v>45907</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/logs/water_fertilizer_shuffle_mk.xlsx
+++ b/logs/water_fertilizer_shuffle_mk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrkel\Documents\git\2025_g34p\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monik\Documents\git\2025_g34p\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19474A1E-0E23-4719-8F20-79208817B640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C1F7EA-9EB8-4DDE-8B3B-3A6257DBB50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16875" yWindow="1830" windowWidth="12480" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -127,7 +127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dddd"/>
+    <numFmt numFmtId="164" formatCode="dddd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -146,12 +146,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,14 +172,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,26 +462,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -487,10 +495,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>45847</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <f>A2</f>
         <v>45847</v>
       </c>
@@ -505,11 +513,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>45848</v>
       </c>
-      <c r="B3" s="6">
-        <f t="shared" ref="B3:B32" si="0">A3</f>
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:B33" si="0">A3</f>
         <v>45848</v>
       </c>
       <c r="C3" t="s">
@@ -523,10 +531,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>45851</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f t="shared" si="0"/>
         <v>45851</v>
       </c>
@@ -541,10 +549,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>45852</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f t="shared" si="0"/>
         <v>45852</v>
       </c>
@@ -559,10 +567,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>45854</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>45854</v>
       </c>
@@ -577,10 +585,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>45856</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>45856</v>
       </c>
@@ -595,10 +603,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>45860</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>45860</v>
       </c>
@@ -613,10 +621,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>45863</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>45863</v>
       </c>
@@ -631,10 +639,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>45863</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>45863</v>
       </c>
@@ -649,10 +657,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>45870</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>45870</v>
       </c>
@@ -667,10 +675,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>45870</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>45870</v>
       </c>
@@ -685,10 +693,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>45870</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>45870</v>
       </c>
@@ -703,10 +711,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>45870</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>45870</v>
       </c>
@@ -721,10 +729,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>45873</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>45873</v>
       </c>
@@ -739,10 +747,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>45873</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>45873</v>
       </c>
@@ -757,10 +765,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>45876</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>45876</v>
       </c>
@@ -775,10 +783,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>45876</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>45876</v>
       </c>
@@ -793,10 +801,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>45880</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>45880</v>
       </c>
@@ -811,28 +819,28 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>45881</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="7">
         <f t="shared" si="0"/>
         <v>45881</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <v>100</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>45881</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>45881</v>
       </c>
@@ -847,10 +855,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>45883</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <f t="shared" si="0"/>
         <v>45883</v>
       </c>
@@ -865,10 +873,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>45884</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <f t="shared" si="0"/>
         <v>45884</v>
       </c>
@@ -883,10 +891,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>45887</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <f t="shared" si="0"/>
         <v>45887</v>
       </c>
@@ -901,64 +909,64 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>45889</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <f t="shared" si="0"/>
         <v>45889</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>45891</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <f t="shared" si="0"/>
         <v>45891</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>100</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>45894</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <f t="shared" si="0"/>
         <v>45894</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>100</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>45905</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <f t="shared" si="0"/>
         <v>45905</v>
       </c>
@@ -973,46 +981,46 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>45906</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <f t="shared" si="0"/>
         <v>45906</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>100</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>45907</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <f t="shared" si="0"/>
         <v>45907</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>45903</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <f t="shared" si="0"/>
         <v>45903</v>
       </c>
@@ -1022,15 +1030,15 @@
       <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>45907</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <f t="shared" si="0"/>
         <v>45907</v>
       </c>
@@ -1040,8 +1048,26 @@
       <c r="D32" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B33" s="5">
+        <f t="shared" si="0"/>
+        <v>45909</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/logs/water_fertilizer_shuffle_mk.xlsx
+++ b/logs/water_fertilizer_shuffle_mk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monik\Documents\git\2025_g34p\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C1F7EA-9EB8-4DDE-8B3B-3A6257DBB50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A5B447-9F30-4991-B7E0-968D8B170288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>soaked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintenance, I believer fertilized this day </t>
   </si>
 </sst>
 </file>
@@ -462,22 +465,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="77.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="77.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -494,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45847</v>
       </c>
@@ -512,12 +515,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45848</v>
       </c>
       <c r="B3" s="5">
-        <f t="shared" ref="B3:B33" si="0">A3</f>
+        <f t="shared" ref="B3:B36" si="0">A3</f>
         <v>45848</v>
       </c>
       <c r="C3" t="s">
@@ -530,7 +533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45851</v>
       </c>
@@ -548,7 +551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45852</v>
       </c>
@@ -566,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45854</v>
       </c>
@@ -584,7 +587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45856</v>
       </c>
@@ -602,7 +605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45860</v>
       </c>
@@ -620,7 +623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45863</v>
       </c>
@@ -638,7 +641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45863</v>
       </c>
@@ -656,7 +659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45870</v>
       </c>
@@ -674,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45870</v>
       </c>
@@ -692,7 +695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45870</v>
       </c>
@@ -710,7 +713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45870</v>
       </c>
@@ -728,7 +731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45873</v>
       </c>
@@ -746,7 +749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45873</v>
       </c>
@@ -764,7 +767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45876</v>
       </c>
@@ -782,7 +785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45876</v>
       </c>
@@ -800,7 +803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45880</v>
       </c>
@@ -818,7 +821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>45881</v>
       </c>
@@ -836,7 +839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45881</v>
       </c>
@@ -854,7 +857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45883</v>
       </c>
@@ -872,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45884</v>
       </c>
@@ -890,7 +893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45887</v>
       </c>
@@ -908,7 +911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45889</v>
       </c>
@@ -926,7 +929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45891</v>
       </c>
@@ -944,7 +947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45894</v>
       </c>
@@ -962,7 +965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45905</v>
       </c>
@@ -980,7 +983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45906</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45907</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45903</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45907</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45909</v>
       </c>
@@ -1068,6 +1071,57 @@
       </c>
       <c r="E33" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B34" s="5">
+        <f t="shared" si="0"/>
+        <v>45917</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B35" s="5">
+        <f t="shared" si="0"/>
+        <v>45916</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B36" s="5">
+        <f t="shared" si="0"/>
+        <v>45913</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/logs/water_fertilizer_shuffle_mk.xlsx
+++ b/logs/water_fertilizer_shuffle_mk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monik\Documents\git\2025_g34p\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A5B447-9F30-4991-B7E0-968D8B170288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BEA96A-F2C7-433A-8161-CD18B2A92646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
   <si>
     <t>date</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">maintenance, I believer fertilized this day </t>
+  </si>
+  <si>
+    <t>shuffled all</t>
   </si>
 </sst>
 </file>
@@ -465,22 +468,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="77.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -497,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45847</v>
       </c>
@@ -515,12 +518,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45848</v>
       </c>
       <c r="B3" s="5">
-        <f t="shared" ref="B3:B36" si="0">A3</f>
+        <f t="shared" ref="B3:B37" si="0">A3</f>
         <v>45848</v>
       </c>
       <c r="C3" t="s">
@@ -533,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45851</v>
       </c>
@@ -551,7 +554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45852</v>
       </c>
@@ -569,7 +572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45854</v>
       </c>
@@ -587,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45856</v>
       </c>
@@ -605,7 +608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45860</v>
       </c>
@@ -623,7 +626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45863</v>
       </c>
@@ -641,7 +644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45863</v>
       </c>
@@ -659,7 +662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45870</v>
       </c>
@@ -677,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45870</v>
       </c>
@@ -695,7 +698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45870</v>
       </c>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45870</v>
       </c>
@@ -731,7 +734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45873</v>
       </c>
@@ -749,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45873</v>
       </c>
@@ -767,7 +770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45876</v>
       </c>
@@ -785,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45876</v>
       </c>
@@ -803,7 +806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45880</v>
       </c>
@@ -821,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>45881</v>
       </c>
@@ -839,7 +842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45881</v>
       </c>
@@ -857,7 +860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45883</v>
       </c>
@@ -875,7 +878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45884</v>
       </c>
@@ -893,7 +896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45887</v>
       </c>
@@ -911,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45889</v>
       </c>
@@ -929,7 +932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45891</v>
       </c>
@@ -947,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45894</v>
       </c>
@@ -965,7 +968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45905</v>
       </c>
@@ -983,7 +986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45906</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45907</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45903</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45907</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45909</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45917</v>
       </c>
@@ -1091,7 +1094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45916</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45913</v>
       </c>
@@ -1122,6 +1125,24 @@
       </c>
       <c r="E36" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B37" s="5">
+        <f t="shared" si="0"/>
+        <v>45919</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/logs/water_fertilizer_shuffle_mk.xlsx
+++ b/logs/water_fertilizer_shuffle_mk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monik\Documents\git\2025_g34p\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BEA96A-F2C7-433A-8161-CD18B2A92646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D444A78-27A2-4FA9-ADCB-1C1749E9C32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
   <si>
     <t>date</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>shuffled all</t>
+  </si>
+  <si>
+    <t>thanks Zarra</t>
   </si>
 </sst>
 </file>
@@ -468,22 +471,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="77.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="77.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -500,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45847</v>
       </c>
@@ -518,12 +521,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45848</v>
       </c>
       <c r="B3" s="5">
-        <f t="shared" ref="B3:B37" si="0">A3</f>
+        <f t="shared" ref="B3:B40" si="0">A3</f>
         <v>45848</v>
       </c>
       <c r="C3" t="s">
@@ -536,7 +539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45851</v>
       </c>
@@ -554,7 +557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45852</v>
       </c>
@@ -572,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45854</v>
       </c>
@@ -590,7 +593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45856</v>
       </c>
@@ -608,7 +611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45860</v>
       </c>
@@ -626,7 +629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45863</v>
       </c>
@@ -644,7 +647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45863</v>
       </c>
@@ -662,7 +665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45870</v>
       </c>
@@ -680,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45870</v>
       </c>
@@ -698,7 +701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45870</v>
       </c>
@@ -716,7 +719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45870</v>
       </c>
@@ -734,7 +737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45873</v>
       </c>
@@ -752,7 +755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45873</v>
       </c>
@@ -770,7 +773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45876</v>
       </c>
@@ -788,7 +791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45876</v>
       </c>
@@ -806,7 +809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45880</v>
       </c>
@@ -824,7 +827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>45881</v>
       </c>
@@ -842,7 +845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45881</v>
       </c>
@@ -860,7 +863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45883</v>
       </c>
@@ -878,7 +881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45884</v>
       </c>
@@ -896,7 +899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45887</v>
       </c>
@@ -914,7 +917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45889</v>
       </c>
@@ -932,7 +935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45891</v>
       </c>
@@ -950,7 +953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45894</v>
       </c>
@@ -968,7 +971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45905</v>
       </c>
@@ -986,7 +989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45906</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45907</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45903</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45907</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45909</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45917</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45916</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45913</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45919</v>
       </c>
@@ -1143,6 +1146,54 @@
       </c>
       <c r="E37" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B38" s="5">
+        <f t="shared" si="0"/>
+        <v>45927</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>45928</v>
+      </c>
+      <c r="B39" s="5">
+        <f t="shared" si="0"/>
+        <v>45928</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B40" s="5">
+        <f t="shared" si="0"/>
+        <v>45931</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
